--- a/data_year/zb/人口/人口抽样调查样本数据/人口年龄构成和抚养比(人口抽样调查).xlsx
+++ b/data_year/zb/人口/人口抽样调查样本数据/人口年龄构成和抚养比(人口抽样调查).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,477 +473,281 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>267978</v>
+        <v>188590</v>
       </c>
       <c r="C2" t="n">
-        <v>888206</v>
+        <v>852078</v>
       </c>
       <c r="D2" t="n">
-        <v>102767</v>
+        <v>104541</v>
       </c>
       <c r="E2" t="n">
-        <v>1258951</v>
+        <v>1145209</v>
       </c>
       <c r="F2" t="n">
-        <v>30.17</v>
+        <v>22.13</v>
       </c>
       <c r="G2" t="n">
-        <v>41.74</v>
+        <v>34.4</v>
       </c>
       <c r="H2" t="n">
-        <v>11.57</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>256344</v>
+        <v>185135</v>
       </c>
       <c r="C3" t="n">
-        <v>896908</v>
+        <v>833822</v>
       </c>
       <c r="D3" t="n">
-        <v>107246</v>
+        <v>105704</v>
       </c>
       <c r="E3" t="n">
-        <v>1260498</v>
+        <v>1124661</v>
       </c>
       <c r="F3" t="n">
-        <v>28.58</v>
+        <v>22.2</v>
       </c>
       <c r="G3" t="n">
-        <v>40.54</v>
+        <v>34.88</v>
       </c>
       <c r="H3" t="n">
-        <v>11.96</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241866</v>
+        <v>183498</v>
       </c>
       <c r="C4" t="n">
-        <v>903897</v>
+        <v>826674</v>
       </c>
       <c r="D4" t="n">
-        <v>107303</v>
+        <v>108261</v>
       </c>
       <c r="E4" t="n">
-        <v>1253065</v>
+        <v>1118433</v>
       </c>
       <c r="F4" t="n">
-        <v>26.76</v>
+        <v>22.2</v>
       </c>
       <c r="G4" t="n">
-        <v>38.63</v>
+        <v>35.29</v>
       </c>
       <c r="H4" t="n">
-        <v>11.87</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3321029</v>
+        <v>185409</v>
       </c>
       <c r="C5" t="n">
-        <v>12123681</v>
+        <v>825822</v>
       </c>
       <c r="D5" t="n">
-        <v>1541056</v>
+        <v>113171</v>
       </c>
       <c r="E5" t="n">
-        <v>16985766</v>
+        <v>1124402</v>
       </c>
       <c r="F5" t="n">
-        <v>27.39</v>
+        <v>22.45</v>
       </c>
       <c r="G5" t="n">
-        <v>40.1</v>
+        <v>36.16</v>
       </c>
       <c r="H5" t="n">
-        <v>12.71</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220280</v>
+        <v>3521811</v>
       </c>
       <c r="C6" t="n">
-        <v>862690</v>
+        <v>15559965</v>
       </c>
       <c r="D6" t="n">
-        <v>109696</v>
+        <v>2230465</v>
       </c>
       <c r="E6" t="n">
-        <v>1192666</v>
+        <v>21312241</v>
       </c>
       <c r="F6" t="n">
-        <v>25.53</v>
+        <v>22.63</v>
       </c>
       <c r="G6" t="n">
-        <v>38.25</v>
+        <v>36.97</v>
       </c>
       <c r="H6" t="n">
-        <v>12.72</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212476</v>
+        <v>192698</v>
       </c>
       <c r="C7" t="n">
-        <v>865052</v>
+        <v>839679</v>
       </c>
       <c r="D7" t="n">
-        <v>111212</v>
+        <v>125642.04</v>
       </c>
       <c r="E7" t="n">
-        <v>1188739</v>
+        <v>1158019</v>
       </c>
       <c r="F7" t="n">
-        <v>24.56</v>
+        <v>22.95</v>
       </c>
       <c r="G7" t="n">
-        <v>37.42</v>
+        <v>37.91</v>
       </c>
       <c r="H7" t="n">
-        <v>12.86</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204088</v>
+        <v>192353</v>
       </c>
       <c r="C8" t="n">
-        <v>862020</v>
+        <v>822465</v>
       </c>
       <c r="D8" t="n">
-        <v>112413</v>
+        <v>130427.97</v>
       </c>
       <c r="E8" t="n">
-        <v>1178521</v>
+        <v>1145246</v>
       </c>
       <c r="F8" t="n">
-        <v>23.68</v>
+        <v>23.39</v>
       </c>
       <c r="G8" t="n">
-        <v>36.72</v>
+        <v>39.25</v>
       </c>
       <c r="H8" t="n">
-        <v>13.04</v>
+        <v>15.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196517</v>
+        <v>192963</v>
       </c>
       <c r="C9" t="n">
-        <v>855269</v>
+        <v>815039</v>
       </c>
       <c r="D9" t="n">
-        <v>113199</v>
+        <v>136645.26</v>
       </c>
       <c r="E9" t="n">
-        <v>1164986</v>
+        <v>1144648</v>
       </c>
       <c r="F9" t="n">
-        <v>22.98</v>
+        <v>23.68</v>
       </c>
       <c r="G9" t="n">
-        <v>36.21</v>
+        <v>40.44</v>
       </c>
       <c r="H9" t="n">
-        <v>13.24</v>
+        <v>16.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188590</v>
+        <v>183267</v>
       </c>
       <c r="C10" t="n">
-        <v>852078</v>
+        <v>771326</v>
       </c>
       <c r="D10" t="n">
-        <v>104541</v>
+        <v>137282.68</v>
       </c>
       <c r="E10" t="n">
-        <v>1145209</v>
+        <v>1091876</v>
       </c>
       <c r="F10" t="n">
-        <v>22.13</v>
+        <v>23.76</v>
       </c>
       <c r="G10" t="n">
-        <v>34.4</v>
+        <v>41.56</v>
       </c>
       <c r="H10" t="n">
-        <v>12.27</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185135</v>
+        <v>261376</v>
       </c>
       <c r="C11" t="n">
-        <v>833822</v>
+        <v>1020258</v>
       </c>
       <c r="D11" t="n">
-        <v>105704</v>
+        <v>212419</v>
       </c>
       <c r="E11" t="n">
-        <v>1124661</v>
+        <v>1494054</v>
       </c>
       <c r="F11" t="n">
-        <v>22.2</v>
+        <v>25.62</v>
       </c>
       <c r="G11" t="n">
-        <v>34.88</v>
+        <v>46.44</v>
       </c>
       <c r="H11" t="n">
-        <v>12.68</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>183498</v>
-      </c>
-      <c r="C12" t="n">
-        <v>826674</v>
-      </c>
-      <c r="D12" t="n">
-        <v>108261</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1118433</v>
-      </c>
-      <c r="F12" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="H12" t="n">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>185409</v>
-      </c>
-      <c r="C13" t="n">
-        <v>825822</v>
-      </c>
-      <c r="D13" t="n">
-        <v>113171</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1124402</v>
-      </c>
-      <c r="F13" t="n">
-        <v>22.45</v>
-      </c>
-      <c r="G13" t="n">
-        <v>36.16</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3521811</v>
-      </c>
-      <c r="C14" t="n">
-        <v>15559965</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2230465</v>
-      </c>
-      <c r="E14" t="n">
-        <v>21312241</v>
-      </c>
-      <c r="F14" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="G14" t="n">
-        <v>36.97</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14.33</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>192698</v>
-      </c>
-      <c r="C15" t="n">
-        <v>839679</v>
-      </c>
-      <c r="D15" t="n">
-        <v>125642.04</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1158019</v>
-      </c>
-      <c r="F15" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="G15" t="n">
-        <v>37.91</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14.96</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>192353</v>
-      </c>
-      <c r="C16" t="n">
-        <v>822465</v>
-      </c>
-      <c r="D16" t="n">
-        <v>130427.97</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1145246</v>
-      </c>
-      <c r="F16" t="n">
-        <v>23.39</v>
-      </c>
-      <c r="G16" t="n">
-        <v>39.25</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15.86</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>192963</v>
-      </c>
-      <c r="C17" t="n">
-        <v>815039</v>
-      </c>
-      <c r="D17" t="n">
-        <v>136645.26</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1144648</v>
-      </c>
-      <c r="F17" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="G17" t="n">
-        <v>40.44</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16.77</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>183267</v>
-      </c>
-      <c r="C18" t="n">
-        <v>771326</v>
-      </c>
-      <c r="D18" t="n">
-        <v>137282.68</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1091876</v>
-      </c>
-      <c r="F18" t="n">
-        <v>23.76</v>
-      </c>
-      <c r="G18" t="n">
-        <v>41.56</v>
-      </c>
-      <c r="H18" t="n">
-        <v>17.8</v>
+        <v>20.82</v>
       </c>
     </row>
   </sheetData>
